--- a/houseTrk2.xlsx
+++ b/houseTrk2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CCrowe\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F81D68D-D176-4C19-9D6A-3F6D00ABEC04}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE165838-0686-40D0-A2FA-149F16FC7434}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="3" xr2:uid="{9B0A2BB3-E531-4EC4-903B-06DCF699950A}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,10 +438,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,34 +776,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1736,34 +1737,34 @@
       <c r="J53" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26" t="s">
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -2728,20 +2729,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -4634,20 +4635,20 @@
       <c r="J105" s="7"/>
     </row>
     <row r="106" spans="1:10" s="5" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27" t="s">
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
     </row>
     <row r="107" spans="1:10" s="5" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="28" t="s">
@@ -6572,20 +6573,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -7306,18 +7307,18 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" s="5" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
     </row>
     <row r="59" spans="1:10" s="8" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
@@ -7676,20 +7677,20 @@
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="1:10" s="5" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27" t="s">
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
     </row>
     <row r="88" spans="1:10" s="5" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
@@ -8785,10 +8786,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC80B4E6-992A-46AD-87A2-7C3FC804E5AD}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8801,16 +8802,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -8949,16 +8950,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -9097,16 +9098,16 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -9245,16 +9246,16 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -9392,19 +9393,19 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="55" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+    <row r="55" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-    </row>
-    <row r="56" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+    </row>
+    <row r="56" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>77</v>
       </c>
@@ -9430,7 +9431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -9440,7 +9441,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -9450,7 +9451,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -9460,7 +9461,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -9470,7 +9471,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -9480,7 +9481,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -9490,7 +9491,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -9500,7 +9501,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -9510,7 +9511,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -9520,7 +9521,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -9530,7 +9531,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -9540,55 +9541,55 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
+    <row r="68" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-    </row>
-    <row r="69" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+    </row>
+    <row r="69" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="F69" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G69" s="25" t="s">
+      <c r="G69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H69" s="25" t="s">
+      <c r="H69" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -9598,7 +9599,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -9608,7 +9609,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -9618,7 +9619,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -9628,7 +9629,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -9638,7 +9639,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -9648,7 +9649,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -9658,7 +9659,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -9668,7 +9669,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -9678,7 +9679,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -9688,65 +9689,65 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+    </row>
+    <row r="82" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="25" t="s">
+      <c r="E82" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F82" s="25" t="s">
+      <c r="F82" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G82" s="25" t="s">
+      <c r="G82" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H82" s="25" t="s">
+      <c r="H82" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-    </row>
-    <row r="84" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -9756,7 +9757,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -9766,7 +9767,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -9776,7 +9777,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -9786,7 +9787,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -9796,7 +9797,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -9806,7 +9807,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -9816,7 +9817,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -9826,7 +9827,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -9836,75 +9837,75 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+    </row>
+    <row r="95" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-    </row>
-    <row r="97" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-    </row>
-    <row r="98" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-    </row>
-    <row r="99" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -9914,7 +9915,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -9924,7 +9925,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -9934,7 +9935,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -9944,7 +9945,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -9954,7 +9955,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -9964,7 +9965,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -9974,7 +9975,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="25" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -9984,32 +9985,8 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:H55"/>
+  <mergeCells count="16">
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="E68:H68"/>
     <mergeCell ref="A1:D1"/>
@@ -10018,6 +9995,14 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="E94:H94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10098,48 +10083,48 @@
         <v>29</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="31"/>
+      <c r="L5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -15500,47 +15485,47 @@
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="31"/>
+      <c r="L5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:15" s="15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" s="15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
@@ -25022,48 +25007,48 @@
         <v>29</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30" t="s">
+      <c r="K4" s="31"/>
+      <c r="L4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
       <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
